--- a/_Lang_Korean/Lang/KR/Game/Chara.xlsx
+++ b/_Lang_Korean/Lang/KR/Game/Chara.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2590" uniqueCount="1400">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2591" uniqueCount="1400">
   <si>
     <t xml:space="preserve">id</t>
   </si>
@@ -56,7 +56,7 @@
     <t xml:space="preserve">chara</t>
   </si>
   <si>
-    <t xml:space="preserve">EA 23.18</t>
+    <t xml:space="preserve">EA 23.23 fix 1</t>
   </si>
   <si>
     <t xml:space="preserve">*r</t>
@@ -1838,10 +1838,10 @@
     <t xml:space="preserve">ロウェル</t>
   </si>
   <si>
-    <t xml:space="preserve">chief of asylum</t>
-  </si>
-  <si>
-    <t xml:space="preserve">アシュラムの院長</t>
+    <t xml:space="preserve">chief of orphanage</t>
+  </si>
+  <si>
+    <t xml:space="preserve">孤児院の院長</t>
   </si>
   <si>
     <t xml:space="preserve">caravan_master</t>
@@ -9739,7 +9739,7 @@
         <v>604</v>
       </c>
       <c r="B218" t="s">
-        <v>1008</v>
+        <v>13</v>
       </c>
       <c r="C218"/>
       <c r="D218" t="s">

--- a/_Lang_Korean/Lang/KR/Game/Chara.xlsx
+++ b/_Lang_Korean/Lang/KR/Game/Chara.xlsx
@@ -1252,7 +1252,7 @@
     <t xml:space="preserve">オルヴィナ村村長の二人娘の姉。主に期待を寄せつつも、主が死を欺いたことに対してはどうしても納得できず、主は死ぬべきだと思っている。</t>
   </si>
   <si>
-    <t xml:space="preserve">올비나의 소리꾼</t>
+    <t xml:space="preserve">올비나의 노래꾼</t>
   </si>
   <si>
     <t xml:space="preserve">talesinger of Olvina</t>
@@ -4425,9 +4425,9 @@
       <selection pane="bottomLeft" activeCell="J105" activeCellId="0" sqref="J105"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="7.65625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="7.6484375" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="1" style="0" width="14.72"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="1" style="0" width="14.71"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">

--- a/_Lang_Korean/Lang/KR/Game/Chara.xlsx
+++ b/_Lang_Korean/Lang/KR/Game/Chara.xlsx
@@ -3691,7 +3691,7 @@
     <t xml:space="preserve">テフラ</t>
   </si>
   <si>
-    <t xml:space="preserve">불타는 바위의 악마</t>
+    <t xml:space="preserve">작암의 악마 </t>
   </si>
   <si>
     <t xml:space="preserve">Scorching Rock Demon</t>
@@ -4387,13 +4387,17 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
@@ -4419,13 +4423,13 @@
   </sheetPr>
   <dimension ref="A1:L343"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="0" ySplit="2" topLeftCell="A90" activePane="bottomLeft" state="frozen"/>
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="J105" activeCellId="0" sqref="J105"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="E1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <pane xSplit="0" ySplit="2" topLeftCell="A291" activePane="bottomLeft" state="frozen"/>
+      <selection pane="topLeft" activeCell="E1" activeCellId="0" sqref="E1"/>
+      <selection pane="bottomLeft" activeCell="I308" activeCellId="0" sqref="I308"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="7.6484375" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="7.63671875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="1" style="0" width="14.71"/>
   </cols>
@@ -10940,7 +10944,7 @@
         <v>1217</v>
       </c>
     </row>
-    <row r="305" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="305" customFormat="false" ht="13.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A305" s="0" t="s">
         <v>1218</v>
       </c>
@@ -10956,7 +10960,7 @@
       <c r="F305" s="0" t="s">
         <v>1221</v>
       </c>
-      <c r="J305" s="0" t="s">
+      <c r="J305" s="2" t="s">
         <v>1222</v>
       </c>
       <c r="K305" s="0" t="s">

--- a/_Lang_Korean/Lang/KR/Game/Chara.xlsx
+++ b/_Lang_Korean/Lang/KR/Game/Chara.xlsx
@@ -2422,7 +2422,7 @@
     <t xml:space="preserve">merchant_junk</t>
   </si>
   <si>
-    <t xml:space="preserve">정크 가게 주인</t>
+    <t xml:space="preserve">고물 가게 주인</t>
   </si>
   <si>
     <t xml:space="preserve">junk shopkeeper</t>
@@ -4424,12 +4424,12 @@
   <dimension ref="A1:L343"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="E1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="0" ySplit="2" topLeftCell="A291" activePane="bottomLeft" state="frozen"/>
+      <pane xSplit="0" ySplit="2" topLeftCell="A189" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="E1" activeCellId="0" sqref="E1"/>
-      <selection pane="bottomLeft" activeCell="I308" activeCellId="0" sqref="I308"/>
+      <selection pane="bottomLeft" activeCell="J204" activeCellId="0" sqref="J204"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="7.63671875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="7.62109375" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="1" style="0" width="14.71"/>
   </cols>
